--- a/biology/Médecine/Croix-Bleue/Croix-Bleue.xlsx
+++ b/biology/Médecine/Croix-Bleue/Croix-Bleue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La fédération internationale des sociétés de la Croix-Bleue (IFBC) est une organisation suisse basée à Berne, dont le but est de venir en aide aux personnes dépendantes, notamment de l'alcool. Ses champs d'action sont la prévention, le conseil et l'accompagnement.  Actuellement, elle est active dans plus de 40 pays.
 </t>
@@ -511,11 +523,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1876, Louis-Lucien Rochat, pasteur dans le canton de Vaud, établit des contacts avec des groupes d'abstinents lors d'un séjour en Grande-Bretagne. Il y entrevoit une forme de réponse aux problèmes sociaux, médicaux et personnels que posait le rapide développement de l'alcoolisme parmi les populations défavorisées des milieux ruraux et de la classe ouvrière.
 C’est le 21 août 1877, dans sa maison de Cossonay, qu’il ressent l’appel de Dieu de s’engager dans ce combat contre l'intempérance.
-1 mois plus tard, soit le 21 septembre 1877, il fonde à Genève la Croix-Bleue avec 27 autres personnes membres[1]. Ayant eux-mêmes été personnellement confrontés à des problèmes d'alcool, ils avaient acquis la conviction qu'il fallait faire quelque chose pour les personnes atteintes et leurs familles. Leur combat contre le mésusage de l'alcool se basait sur leur foi chrétienne. Les fondateurs s'inspirent du Comité international de la Croix Rouge récemment formé. Comme les secouristes de la Croix Rouge, ils veulent « aller avec des brancards au front de la vie pour sauver les victimes de l'alcoolisme. »[réf. nécessaire]
+1 mois plus tard, soit le 21 septembre 1877, il fonde à Genève la Croix-Bleue avec 27 autres personnes membres. Ayant eux-mêmes été personnellement confrontés à des problèmes d'alcool, ils avaient acquis la conviction qu'il fallait faire quelque chose pour les personnes atteintes et leurs familles. Leur combat contre le mésusage de l'alcool se basait sur leur foi chrétienne. Les fondateurs s'inspirent du Comité international de la Croix Rouge récemment formé. Comme les secouristes de la Croix Rouge, ils veulent « aller avec des brancards au front de la vie pour sauver les victimes de l'alcoolisme. »[réf. nécessaire]
 Liée à l'Église réformée au moment de sa création, l'ancrage religieux de l'action de la Croix-Bleue sur le terrain est aujourd'hui très variable d'un pays à l'autre.
 Régulièrement, la date anniversaire de la Croix-Bleue retenue est celle de la création de la première section genevoise en septembre 1877, bien que les autorités communales de Cossonay aient conservé la plaque commémorative de la fondation de la Croix-Bleue dans l’esprit du pasteur Louis-Lucien Rochat, le 21 août 1877[réf. nécessaire].
 La Croix-Bleue a fêté ses 150 ans le 21 août 2017 à Cossonay, en en mémoire de son fondateur[réf. nécessaire].
@@ -547,7 +561,9 @@
           <t>Chronologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">1880, fondation par Arnold Bovet de la première association de langue allemande à Berne.
 1886, fondation du « Comité international » présidé par Louis Lucien Rochat.
@@ -585,7 +601,9 @@
           <t>Mission</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle a pour but de venir en aide aux personnes dépendantes, de l'alcool notamment et à leur famille.
 </t>
@@ -616,7 +634,9 @@
           <t>Prévention</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La prévention auprès des enfants, jeunes et adultes fait l'objet de programmes spécifiques.
 En Suisse romande : actuellement, la Croix-Bleue après avoir créé en 2002 un concept de prévention Raid-Bleue destiné aux jeunes 14 à 25 ans, lance en 2008 :
